--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="273">
   <si>
     <t>类别名称</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Siamo scese al pianterreno.</t>
-  </si>
-  <si>
-    <t>scrivere</t>
   </si>
   <si>
     <t>noi</t>
@@ -472,6 +469,603 @@
   </si>
   <si>
     <t>hanno taciuto</t>
+  </si>
+  <si>
+    <t>scrivere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aprire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cadere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>combattere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discutere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>godere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ottenere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riempire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>convincere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinpingere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispiacere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eleggere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fingere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoppiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scappare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pungere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>soffrire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>domandare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emettere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cercare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiamare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>potere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dovere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mangiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insegnare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giocare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>capire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>odire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>finire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accadere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete fatto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo aperto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho bevuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sono cadute/caduti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo avuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai detto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>siete state/stati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho trovato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai chiuso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo combattuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete discusso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha goduto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha ottenuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>siamo piaciute/piaciuti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho riempito</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo stretto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanno difeso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho convinto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai appeso</t>
+  </si>
+  <si>
+    <t>abbiamo teso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai eletto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>è scoppiata/scoppiata</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sono scappata/scappato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo sofferto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete emesso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>è passata/passato || ha passato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai cercato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete chiamato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha potuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete dovuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai dipinto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sono dispiaciuta/dispiaciuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho finto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho punto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha domandato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha seguito</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanno spinto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho tenuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanno mangiato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai guardato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo imparato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha insegnato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai viaggiato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete giocato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho capito</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha odorato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai amato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>è iniziata/iniziato || ha iniziato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo pensato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hai comprato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">è </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">finita/finito || </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ha finito</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho parlato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho ricordato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanno aiutato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avete continuato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L’amore ti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ha reso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cieco.爱情迷住了你的眼。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha reso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho provato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>è accaduta/accaduto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gli è accaduta una disgrazia. 他遭到不幸。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbiamo deciso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -835,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -949,7 +1543,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,16 +1755,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,16 +1772,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,16 +1789,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,16 +1806,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,16 +1823,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
         <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,16 +1840,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
         <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,16 +1857,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
         <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1294,13 +1888,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,13 +1902,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,13 +1916,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,13 +1930,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,10 +1958,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>24</v>
@@ -1378,13 +1972,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,13 +1986,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,13 +2000,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,13 +2014,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,13 +2028,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,13 +2042,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,13 +2056,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +2084,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,13 +2098,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +2112,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,13 +2126,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,17 +2154,850 @@
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="274">
   <si>
     <t>类别名称</t>
   </si>
@@ -1065,6 +1065,10 @@
   </si>
   <si>
     <t>abbiamo deciso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L’inverno è finito.冬天过去了。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1431,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2876,6 +2880,9 @@
       <c r="D97" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="E97" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">

--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView windowWidth="29745" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="249">
   <si>
     <t>类别名称</t>
   </si>
@@ -817,6 +817,27 @@
   </si>
   <si>
     <t>abbiamo deciso</t>
+  </si>
+  <si>
+    <t>esistere</t>
+  </si>
+  <si>
+    <t>sono esistita/esistito</t>
+  </si>
+  <si>
+    <t>Il castello esiste ancora. 那个城堡还在。</t>
+  </si>
+  <si>
+    <t>303 Indicativo - Passato Prossimo</t>
+  </si>
+  <si>
+    <t>dipendere</t>
+  </si>
+  <si>
+    <t>è dipesa/dipeso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipende da te andare o no. 去不去由你。 </t>
   </si>
 </sst>
 </file>
@@ -1792,17 +1813,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="37.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="37.775" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.55833333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
@@ -3361,6 +3382,40 @@
         <v>241</v>
       </c>
     </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29745" windowHeight="14910"/>
+    <workbookView windowWidth="23580" windowHeight="12131"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="257">
   <si>
     <t>类别名称</t>
   </si>
@@ -353,6 +353,9 @@
     <t>ha cotto</t>
   </si>
   <si>
+    <t>cuocere a fuoco lento文火煮</t>
+  </si>
+  <si>
     <t>credere</t>
   </si>
   <si>
@@ -365,6 +368,9 @@
     <t>siamo giunte/giunti</t>
   </si>
   <si>
+    <t>Siamo giunte in tempo alla stazione.我们及时到了火车站。</t>
+  </si>
+  <si>
     <t>lasciare</t>
   </si>
   <si>
@@ -389,6 +395,9 @@
     <t>hanno riunito</t>
   </si>
   <si>
+    <t>La maestra riunì le alunne attorno a lei. 教师把学生聚集在自己的周围。</t>
+  </si>
+  <si>
     <t>sono scesa/sceso</t>
   </si>
   <si>
@@ -422,6 +431,9 @@
     <t>sono cadute/caduti</t>
   </si>
   <si>
+    <t>è caduto dal tetto. 她从屋顶上摔下来。</t>
+  </si>
+  <si>
     <t>avere</t>
   </si>
   <si>
@@ -464,12 +476,18 @@
     <t>avete discusso</t>
   </si>
   <si>
+    <t>Non voglio mettermi a discutere con voi. 我不愿意和你们争论。</t>
+  </si>
+  <si>
     <t>godere</t>
   </si>
   <si>
     <t>ha goduto</t>
   </si>
   <si>
+    <t>Quest’albergo gode di un magnifico panorama.从这个旅馆可以看到优美的风景。</t>
+  </si>
+  <si>
     <t>ottenere</t>
   </si>
   <si>
@@ -488,13 +506,19 @@
     <t>ho riempito</t>
   </si>
   <si>
+    <t>riempire una lacuna 填补空白</t>
+  </si>
+  <si>
     <t>stringere</t>
   </si>
   <si>
     <t>abbiamo stretto</t>
   </si>
   <si>
-    <t>diffendere</t>
+    <t>stringere le labbra紧闭嘴唇</t>
+  </si>
+  <si>
+    <t>difendere</t>
   </si>
   <si>
     <t>hanno difeso</t>
@@ -1815,15 +1839,15 @@
   <sheetPr/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="37.775" customWidth="1"/>
+    <col min="1" max="1" width="37.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
@@ -2421,7 +2445,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2434,33 +2458,39 @@
       <c r="D38" t="s">
         <v>105</v>
       </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2468,13 +2498,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2482,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2496,27 +2526,30 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2530,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2538,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2552,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2566,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2580,27 +2613,30 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2608,13 +2644,13 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2622,13 +2658,13 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2636,13 +2672,13 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2650,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2664,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2678,41 +2714,47 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2720,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2734,41 +2776,47 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="E61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="E62" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2776,13 +2824,13 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2790,13 +2838,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2804,13 +2852,13 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2818,13 +2866,13 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2832,13 +2880,13 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2846,13 +2894,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2860,13 +2908,13 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2874,13 +2922,13 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2888,13 +2936,13 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2902,13 +2950,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2916,13 +2964,13 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2930,13 +2978,13 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2944,13 +2992,13 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2958,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2972,13 +3020,13 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2986,13 +3034,13 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3000,13 +3048,13 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3014,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3028,13 +3076,13 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3042,13 +3090,13 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3056,13 +3104,13 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3070,13 +3118,13 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3084,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3098,13 +3146,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3112,13 +3160,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
         <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3126,13 +3174,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3140,13 +3188,13 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3154,13 +3202,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3168,13 +3216,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3182,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3196,13 +3244,13 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3210,13 +3258,13 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3224,13 +3272,13 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
         <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3238,13 +3286,13 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3252,16 +3300,16 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E97" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3269,13 +3317,13 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3283,13 +3331,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3297,13 +3345,13 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3311,13 +3359,13 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3325,16 +3373,16 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3342,13 +3390,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3356,16 +3404,16 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3373,13 +3421,13 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3387,33 +3435,33 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="266">
   <si>
     <t>类别名称</t>
   </si>
@@ -542,12 +542,18 @@
     <t>abbiamo teso</t>
   </si>
   <si>
-    <t>dinpingere</t>
+    <t>tendere una corda 拉一根绳子</t>
+  </si>
+  <si>
+    <t>dipingere</t>
   </si>
   <si>
     <t>hai dipinto</t>
   </si>
   <si>
+    <t>Cominciò a dipingere due anni fa. 他两年前开始绘画。</t>
+  </si>
+  <si>
     <t>dispiacere</t>
   </si>
   <si>
@@ -560,36 +566,54 @@
     <t>hai eletto</t>
   </si>
   <si>
+    <t>E’ stato eletto caporeparto dagli opera. 他被工人选为车间主任。</t>
+  </si>
+  <si>
     <t>fingere</t>
   </si>
   <si>
     <t>ho finto</t>
   </si>
   <si>
+    <t>Fingiamo che non sia ancora arrivato. 我们设想他还没有到。</t>
+  </si>
+  <si>
     <t>scoppiare</t>
   </si>
   <si>
     <t>è scoppiata/scoppiata</t>
   </si>
   <si>
+    <t>E’scoppiato un pneumatico. 一个轮胎爆了。</t>
+  </si>
+  <si>
     <t>scappare</t>
   </si>
   <si>
     <t>sono scappata/scappato</t>
   </si>
   <si>
+    <t>Il ladro è scappato. 小偷跑了。</t>
+  </si>
+  <si>
     <t>pungere</t>
   </si>
   <si>
     <t>ho punto</t>
   </si>
   <si>
+    <t>Mi ha punto una vespa.黄蜂蜇了我一下。</t>
+  </si>
+  <si>
     <t>soffrire</t>
   </si>
   <si>
     <t>abbiamo sofferto</t>
   </si>
   <si>
+    <t>Ha molto sofferto nella sua vita. 她一生中受到很多痛苦。</t>
+  </si>
+  <si>
     <t>domandare</t>
   </si>
   <si>
@@ -612,6 +636,9 @@
   </si>
   <si>
     <t>hanno spinto</t>
+  </si>
+  <si>
+    <t>La folla mi spinse lontano dall’ingresso.人群把我从门口挤到老远的地方。</t>
   </si>
   <si>
     <t>passare</t>
@@ -1839,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2861,7 +2888,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2874,19 +2901,25 @@
       <c r="D66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2894,97 +2927,115 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="E71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="E72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2992,13 +3043,13 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3006,13 +3057,13 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3020,27 +3071,30 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3048,13 +3102,13 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3062,13 +3116,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3076,13 +3130,13 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3090,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3104,13 +3158,13 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3118,13 +3172,13 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3132,13 +3186,13 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3146,13 +3200,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3160,13 +3214,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3174,13 +3228,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3188,13 +3242,13 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3202,13 +3256,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3216,13 +3270,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3230,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3244,13 +3298,13 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3258,13 +3312,13 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3272,13 +3326,13 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
         <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3286,13 +3340,13 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3300,16 +3354,16 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3317,13 +3371,13 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3331,13 +3385,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3345,13 +3399,13 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C100" t="s">
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3359,13 +3413,13 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3373,16 +3427,16 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3390,13 +3444,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3404,16 +3458,16 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E104" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3421,13 +3475,13 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s">
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3435,33 +3489,33 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E106" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23580" windowHeight="12131"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="269">
   <si>
     <t>类别名称</t>
   </si>
@@ -308,6 +308,9 @@
     <t>ho colto</t>
   </si>
   <si>
+    <t>cogliere i fiori 采花</t>
+  </si>
+  <si>
     <t>dare</t>
   </si>
   <si>
@@ -407,6 +410,9 @@
     <t>hanno taciuto</t>
   </si>
   <si>
+    <t>Durante la notte tutto tace.夜间, 万籁俱寂。</t>
+  </si>
+  <si>
     <t>fare</t>
   </si>
   <si>
@@ -470,6 +476,9 @@
     <t>abbiamo combattuto</t>
   </si>
   <si>
+    <t>Combattiamo per il grande ideale del comunismo. 我们为共产主义伟大理想而奋斗。</t>
+  </si>
+  <si>
     <t>discutere</t>
   </si>
   <si>
@@ -494,6 +503,9 @@
     <t>ha ottenuto</t>
   </si>
   <si>
+    <t>Ho ottenuto un grande successo. 我已取得一个伟大的成就。</t>
+  </si>
+  <si>
     <t>piacere</t>
   </si>
   <si>
@@ -536,6 +548,9 @@
     <t>hai appeso</t>
   </si>
   <si>
+    <t>appendere le bandiere rosse alle pareti 把红旗挂在墙上</t>
+  </si>
+  <si>
     <t>tendere</t>
   </si>
   <si>
@@ -717,12 +732,6 @@
   </si>
   <si>
     <t>ho capito</t>
-  </si>
-  <si>
-    <t>odire</t>
-  </si>
-  <si>
-    <t>ha odorato</t>
   </si>
   <si>
     <t>amare</t>
@@ -1864,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B92" sqref="$A92:$XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2346,7 +2355,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2359,19 +2368,22 @@
       <c r="D29" t="s">
         <v>90</v>
       </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2379,13 +2391,13 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2407,13 +2419,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2427,7 +2439,7 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2435,13 +2447,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2449,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2463,13 +2475,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2477,16 +2489,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2494,13 +2506,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2508,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2525,13 +2537,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2539,13 +2551,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2553,13 +2565,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2567,16 +2579,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2590,21 +2602,24 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2612,13 +2627,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2626,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2640,13 +2655,13 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2654,16 +2669,16 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2671,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2685,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2699,13 +2714,13 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2713,13 +2728,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2727,27 +2742,30 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2755,16 +2773,16 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2772,30 +2790,33 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2803,13 +2824,13 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2817,16 +2838,16 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2834,16 +2855,16 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2851,13 +2872,13 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2865,27 +2886,30 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2893,16 +2917,16 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2910,16 +2934,16 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2927,13 +2951,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2941,16 +2965,16 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2958,16 +2982,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2975,16 +2999,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2992,16 +3016,16 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3009,16 +3033,16 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3026,16 +3050,16 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3043,13 +3067,13 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3057,13 +3081,13 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3071,13 +3095,13 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3085,16 +3109,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3102,13 +3126,13 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3116,13 +3140,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3130,13 +3154,13 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3144,13 +3168,13 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3158,13 +3182,13 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3172,13 +3196,13 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3186,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3200,13 +3224,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3214,13 +3238,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s">
         <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3228,13 +3252,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3242,13 +3266,13 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3256,13 +3280,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3270,13 +3294,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3284,13 +3308,13 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3298,13 +3322,13 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3312,13 +3336,13 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3326,44 +3350,44 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>242</v>
+      </c>
+      <c r="E96" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
-      </c>
-      <c r="E97" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3371,13 +3395,13 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3385,13 +3409,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3399,123 +3423,109 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="E101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" t="s">
         <v>24</v>
       </c>
-      <c r="D102" t="s">
-        <v>250</v>
-      </c>
-      <c r="E102" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>252</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
         <v>7</v>
       </c>
-      <c r="D103" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
-        <v>254</v>
-      </c>
-      <c r="C104" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" t="s">
-        <v>255</v>
-      </c>
-      <c r="E104" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s">
-        <v>257</v>
-      </c>
-      <c r="C105" t="s">
-        <v>60</v>
-      </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>262</v>
-      </c>
-      <c r="B107" t="s">
-        <v>263</v>
-      </c>
-      <c r="C107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" t="s">
-        <v>264</v>
-      </c>
-      <c r="E107" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="270">
   <si>
     <t>类别名称</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>ho scoperto</t>
+  </si>
+  <si>
+    <t>scoprire un complotto发现一个阴谋</t>
   </si>
   <si>
     <t>cuocere</t>
@@ -1875,8 +1878,8 @@
   <sheetPr/>
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B92" sqref="$A92:$XFD92"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2470,7 +2473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2483,22 +2486,25 @@
       <c r="D37" t="s">
         <v>104</v>
       </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2506,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2520,16 +2526,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2537,13 +2543,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2551,13 +2557,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2565,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2579,16 +2585,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2602,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2610,16 +2616,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2627,13 +2633,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2641,13 +2647,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2655,13 +2661,13 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2669,16 +2675,16 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2686,13 +2692,13 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2700,13 +2706,13 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2714,13 +2720,13 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2728,13 +2734,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2742,13 +2748,13 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2756,16 +2762,16 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2773,16 +2779,16 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2790,16 +2796,16 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2807,16 +2813,16 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2824,13 +2830,13 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2838,16 +2844,16 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2855,16 +2861,16 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2872,13 +2878,13 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2886,13 +2892,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2900,16 +2906,16 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2917,16 +2923,16 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2934,16 +2940,16 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2951,13 +2957,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2965,16 +2971,16 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2982,16 +2988,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2999,16 +3005,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3016,16 +3022,16 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3033,16 +3039,16 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3050,16 +3056,16 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3067,13 +3073,13 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3081,13 +3087,13 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3095,13 +3101,13 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3109,16 +3115,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3126,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3140,13 +3146,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3154,13 +3160,13 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3168,13 +3174,13 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3182,13 +3188,13 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3196,13 +3202,13 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3210,13 +3216,13 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3224,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3238,13 +3244,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
         <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3252,13 +3258,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3266,13 +3272,13 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3280,13 +3286,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3294,13 +3300,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3308,13 +3314,13 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3322,13 +3328,13 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3336,13 +3342,13 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3350,13 +3356,13 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3364,16 +3370,16 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3381,13 +3387,13 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3395,13 +3401,13 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3409,13 +3415,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
         <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3423,13 +3429,13 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
         <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3437,16 +3443,16 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3454,13 +3460,13 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3468,16 +3474,16 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3485,13 +3491,13 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3499,33 +3505,33 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/excel/302 Indicativo - Passato Prossimo.xlsx
+++ b/excel/302 Indicativo - Passato Prossimo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="572">
   <si>
     <t>类别名称</t>
   </si>
@@ -2713,6 +2713,10 @@
   </si>
   <si>
     <t xml:space="preserve"> ha permesso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha riproposto</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2821,68 +2825,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3155,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3111,7 @@
     <col min="5" max="5" width="53.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5943,7 +5886,7 @@
         <v>268</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>400</v>
